--- a/electronique/piece.xlsx
+++ b/electronique/piece.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\projet_thematique\electronique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\projet_thematique\electronique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA37867-3281-442F-918D-E3BEC58204D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B967E4-1135-4DD6-8D4E-D2DBCE6DF0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D309BBC-47B0-4F9F-9E0F-FA898507860E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D309BBC-47B0-4F9F-9E0F-FA898507860E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -133,13 +133,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="#,##0.00\ [$CHF]"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$CHF]"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,23 +170,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ [$CHF]"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$CHF]"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="#,##0.00\ [$CHF]"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ [$CHF]"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -202,8 +213,8 @@
     <tableColumn id="3" xr3:uid="{9AF021C0-5FD6-4BA7-B39C-8DD0D0F145C9}" name="Site"/>
     <tableColumn id="6" xr3:uid="{6E3B77F4-386F-4BEF-8E46-D4F6B3024E17}" name="url"/>
     <tableColumn id="7" xr3:uid="{4A5F0837-052E-43AC-8854-09105DC93D1C}" name="Quantité"/>
-    <tableColumn id="4" xr3:uid="{A11AFF3B-9A2C-4049-B016-1D7CFB9201DF}" name="Prix unitaire" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{85162D8A-ABE3-47E6-92F7-B00ABCC37B75}" name="Prix Lot" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{A11AFF3B-9A2C-4049-B016-1D7CFB9201DF}" name="Prix unitaire" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{85162D8A-ABE3-47E6-92F7-B00ABCC37B75}" name="Prix Lot" dataDxfId="0">
       <calculatedColumnFormula>Tableau1[[#This Row],[Prix unitaire]]*Tableau1[[#This Row],[Quantité]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -516,7 +527,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
@@ -563,7 +574,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2">
@@ -587,7 +598,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3">
@@ -611,7 +622,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E4">
@@ -635,7 +646,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E5">
@@ -659,7 +670,7 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E6">
@@ -683,7 +694,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7">
@@ -707,7 +718,7 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E8">
@@ -722,10 +733,19 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F7F3A7BF-1CBE-4397-B7D7-CE063A2FA03A}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{8B97F43B-B617-437B-A1BD-C55339F58DF5}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{5E2C8808-7837-466A-9FD5-F1B32E8BD06B}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{FA6A5648-E76B-4C92-8823-6039542012DC}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{583F0837-C131-4D6B-ABFA-33403C5F1F93}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{F83BE4D6-5028-436B-9141-14F87DB5586A}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{1D7DA4C1-F0E0-4168-B1B8-7CB8FA04CB4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>